--- a/extractosBancarios/03012023/1539-010120233-03012023.xlsx
+++ b/extractosBancarios/03012023/1539-010120233-03012023.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,10 +15,21 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -63,6 +74,9 @@
     <t>PTS</t>
   </si>
   <si>
+    <t>DEP DE JULIA SARA FLORES MOGRO</t>
+  </si>
+  <si>
     <t>24,200.00</t>
   </si>
   <si>
@@ -75,6 +89,9 @@
     <t>LPZ</t>
   </si>
   <si>
+    <t>N/C ACH SALAZAR POMA ALVARO</t>
+  </si>
+  <si>
     <t>13,206.62</t>
   </si>
   <si>
@@ -115,19 +132,13 @@
   </si>
   <si>
     <t>1,685,210.49</t>
-  </si>
-  <si>
-    <t>DEP DE JULIA SARA FLORES MOGRO</t>
-  </si>
-  <si>
-    <t>N/C ACH SALAZAR POMA ALVARO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,12 +233,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -279,7 +289,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -581,237 +591,169 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="40.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+    </row>
+    <row r="4" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+    </row>
+    <row r="5" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+    <row r="6" spans="1:7" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A6" s="4">
         <v>44929</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="5">
+        <v>33813531</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A7" s="7">
+        <v>44929</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="8">
+        <v>3074717021</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="10"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A15" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A16" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="6">
-        <v>33813531</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
-        <v>44929</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="9" t="s">
+      <c r="D16" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="9">
-        <v>3074717021</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="F16" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
